--- a/excel_reports/Jordan_Otte.xlsx
+++ b/excel_reports/Jordan_Otte.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11005" uniqueCount="2586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10922" uniqueCount="2578">
   <si>
     <t>Policy Record</t>
   </si>
@@ -7349,12 +7349,6 @@
     <t>3172288036</t>
   </si>
   <si>
-    <t>3833478301</t>
-  </si>
-  <si>
-    <t>Seifert</t>
-  </si>
-  <si>
     <t>3172219207</t>
   </si>
   <si>
@@ -7397,12 +7391,6 @@
     <t>3172342279</t>
   </si>
   <si>
-    <t>3172322115</t>
-  </si>
-  <si>
-    <t>3172322135</t>
-  </si>
-  <si>
     <t>3172392066</t>
   </si>
   <si>
@@ -7451,12 +7439,6 @@
     <t>3172404337</t>
   </si>
   <si>
-    <t>3949102244</t>
-  </si>
-  <si>
-    <t>No Dental Coverage</t>
-  </si>
-  <si>
     <t>3172391840</t>
   </si>
   <si>
@@ -7559,9 +7541,6 @@
     <t>3172252306</t>
   </si>
   <si>
-    <t>3794405805</t>
-  </si>
-  <si>
     <t>3172391943</t>
   </si>
   <si>
@@ -7644,9 +7623,6 @@
   </si>
   <si>
     <t>3172219023</t>
-  </si>
-  <si>
-    <t>3424387116</t>
   </si>
   <si>
     <t>3172391967</t>
@@ -8191,12 +8167,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>2556</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>2557</v>
+        <v>2549</v>
       </c>
       <c r="B2" s="2">
         <v>386</v>
@@ -8204,7 +8180,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>2558</v>
+        <v>2550</v>
       </c>
       <c r="B3" s="2">
         <v>489</v>
@@ -8212,18 +8188,18 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>2559</v>
+        <v>2551</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>2560</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>2561</v>
+        <v>2553</v>
       </c>
       <c r="B5" s="4">
         <f>B3+B4-B2</f>
@@ -8232,7 +8208,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>2562</v>
+        <v>2554</v>
       </c>
       <c r="B6" s="2">
         <v>-30</v>
@@ -8240,30 +8216,30 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>2563</v>
+        <v>2555</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>2564</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>2565</v>
+        <v>2557</v>
       </c>
       <c r="B8" s="4">
         <f>SUM(B5:B7)</f>
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>2566</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>2567</v>
+        <v>2559</v>
       </c>
       <c r="B9" s="5">
         <f>MAX(0, B8*150)</f>
@@ -8272,12 +8248,12 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>2568</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>2569</v>
+        <v>2561</v>
       </c>
       <c r="B12" s="2">
         <v>57</v>
@@ -8285,7 +8261,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>2570</v>
+        <v>2562</v>
       </c>
       <c r="B13" s="2">
         <v>3</v>
@@ -8293,20 +8269,20 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>2571</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>2572</v>
+        <v>2564</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>2585</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>2573</v>
+        <v>2565</v>
       </c>
       <c r="B17" s="5">
         <f>SUM(Core!T:T)</f>
@@ -8315,12 +8291,12 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>2574</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>2575</v>
+        <v>2567</v>
       </c>
       <c r="B20">
         <v>65</v>
@@ -8328,15 +8304,15 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>2576</v>
+        <v>2568</v>
       </c>
       <c r="B21">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>2577</v>
+        <v>2569</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -8344,7 +8320,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>2578</v>
+        <v>2570</v>
       </c>
       <c r="B23">
         <f>-B20+B21+B22</f>
@@ -8353,7 +8329,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>2579</v>
+        <v>2571</v>
       </c>
       <c r="B24" s="5">
         <f>B23*50</f>
@@ -8362,7 +8338,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>2580</v>
+        <v>2572</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -8370,7 +8346,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>2581</v>
+        <v>2573</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -8378,7 +8354,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>2582</v>
+        <v>2574</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -8386,7 +8362,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>2583</v>
+        <v>2575</v>
       </c>
       <c r="B29">
         <f>-B26+B27+B28</f>
@@ -8395,7 +8371,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>2584</v>
+        <v>2576</v>
       </c>
       <c r="B30" s="5">
         <f>B29*100</f>
@@ -40365,7 +40341,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T177"/>
+  <dimension ref="A1:T165"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -40881,19 +40857,19 @@
         <v>2442</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>612</v>
+        <v>674</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>613</v>
+        <v>402</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>614</v>
+        <v>675</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>330</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>2443</v>
+        <v>331</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>330</v>
@@ -40914,10 +40890,10 @@
         <v>19</v>
       </c>
       <c r="M22" t="s">
-        <v>86</v>
+        <v>2443</v>
       </c>
       <c r="N22" t="s">
-        <v>22</v>
+        <v>393</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -40925,13 +40901,13 @@
         <v>2444</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>402</v>
+        <v>683</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>330</v>
@@ -40949,7 +40925,7 @@
         <v>2426</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>2430</v>
+        <v>2434</v>
       </c>
       <c r="K24" t="s">
         <v>2428</v>
@@ -40958,24 +40934,24 @@
         <v>19</v>
       </c>
       <c r="M24" t="s">
-        <v>2445</v>
+        <v>2220</v>
       </c>
       <c r="N24" t="s">
-        <v>393</v>
+        <v>638</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="7" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>683</v>
+        <v>589</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>330</v>
@@ -41002,24 +40978,24 @@
         <v>19</v>
       </c>
       <c r="M26" t="s">
-        <v>2220</v>
+        <v>806</v>
       </c>
       <c r="N26" t="s">
-        <v>638</v>
+        <v>519</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="7" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>687</v>
+        <v>717</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>589</v>
+        <v>718</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>688</v>
+        <v>719</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>330</v>
@@ -41037,7 +41013,7 @@
         <v>2426</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>2434</v>
+        <v>2427</v>
       </c>
       <c r="K28" t="s">
         <v>2428</v>
@@ -41046,24 +41022,24 @@
         <v>19</v>
       </c>
       <c r="M28" t="s">
-        <v>806</v>
+        <v>720</v>
       </c>
       <c r="N28" t="s">
-        <v>519</v>
+        <v>374</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="7" t="s">
+        <v>2447</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>2448</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>717</v>
-      </c>
       <c r="C30" s="8" t="s">
-        <v>718</v>
+        <v>2449</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>719</v>
+        <v>2450</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>330</v>
@@ -41081,7 +41057,7 @@
         <v>2426</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>2427</v>
+        <v>2434</v>
       </c>
       <c r="K30" t="s">
         <v>2428</v>
@@ -41090,24 +41066,24 @@
         <v>19</v>
       </c>
       <c r="M30" t="s">
-        <v>720</v>
+        <v>452</v>
       </c>
       <c r="N30" t="s">
-        <v>374</v>
+        <v>443</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="7" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>2450</v>
+        <v>745</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>2451</v>
+        <v>746</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>2452</v>
+        <v>747</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>330</v>
@@ -41125,7 +41101,7 @@
         <v>2426</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>2434</v>
+        <v>2430</v>
       </c>
       <c r="K32" t="s">
         <v>2428</v>
@@ -41134,24 +41110,24 @@
         <v>19</v>
       </c>
       <c r="M32" t="s">
-        <v>452</v>
+        <v>600</v>
       </c>
       <c r="N32" t="s">
-        <v>443</v>
+        <v>359</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="7" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>745</v>
+        <v>772</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>746</v>
+        <v>390</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>747</v>
+        <v>773</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>330</v>
@@ -41178,24 +41154,24 @@
         <v>19</v>
       </c>
       <c r="M34" t="s">
-        <v>600</v>
+        <v>998</v>
       </c>
       <c r="N34" t="s">
-        <v>359</v>
+        <v>443</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="7" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>772</v>
+        <v>2024</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>390</v>
+        <v>237</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>773</v>
+        <v>238</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>330</v>
@@ -41219,27 +41195,27 @@
         <v>2428</v>
       </c>
       <c r="L36" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="M36" t="s">
-        <v>998</v>
+        <v>217</v>
       </c>
       <c r="N36" t="s">
-        <v>443</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="7" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>2024</v>
+        <v>791</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>237</v>
+        <v>459</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>238</v>
+        <v>789</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>330</v>
@@ -41257,30 +41233,30 @@
         <v>2426</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>2430</v>
+        <v>2427</v>
       </c>
       <c r="K38" t="s">
         <v>2428</v>
       </c>
       <c r="L38" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="M38" t="s">
-        <v>217</v>
+        <v>465</v>
       </c>
       <c r="N38" t="s">
-        <v>22</v>
+        <v>998</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="7" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>459</v>
+        <v>788</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>789</v>
@@ -41313,21 +41289,21 @@
         <v>465</v>
       </c>
       <c r="N40" t="s">
-        <v>998</v>
+        <v>374</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="7" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>787</v>
+        <v>800</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>788</v>
+        <v>64</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>789</v>
+        <v>801</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>330</v>
@@ -41344,9 +41320,6 @@
       <c r="I42" s="8" t="s">
         <v>2426</v>
       </c>
-      <c r="J42" s="8" t="s">
-        <v>2427</v>
-      </c>
       <c r="K42" t="s">
         <v>2428</v>
       </c>
@@ -41354,30 +41327,30 @@
         <v>19</v>
       </c>
       <c r="M42" t="s">
-        <v>465</v>
+        <v>409</v>
       </c>
       <c r="N42" t="s">
-        <v>374</v>
+        <v>501</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="7" t="s">
+        <v>2457</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>2458</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>797</v>
-      </c>
       <c r="C44" s="8" t="s">
-        <v>798</v>
+        <v>1972</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>795</v>
+        <v>2459</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>330</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>2443</v>
+        <v>331</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>330</v>
@@ -41389,7 +41362,7 @@
         <v>2426</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>2427</v>
+        <v>2430</v>
       </c>
       <c r="K44" t="s">
         <v>2428</v>
@@ -41398,30 +41371,30 @@
         <v>19</v>
       </c>
       <c r="M44" t="s">
-        <v>2322</v>
+        <v>380</v>
       </c>
       <c r="N44" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="7" t="s">
+        <v>2460</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>2461</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D46" s="8" t="s">
         <v>2459</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>793</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>794</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>795</v>
-      </c>
       <c r="E46" s="8" t="s">
         <v>330</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>2443</v>
+        <v>331</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>330</v>
@@ -41432,6 +41405,9 @@
       <c r="I46" s="8" t="s">
         <v>2426</v>
       </c>
+      <c r="J46" s="8" t="s">
+        <v>2430</v>
+      </c>
       <c r="K46" t="s">
         <v>2428</v>
       </c>
@@ -41439,24 +41415,24 @@
         <v>19</v>
       </c>
       <c r="M46" t="s">
-        <v>2322</v>
+        <v>380</v>
       </c>
       <c r="N46" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="7" t="s">
-        <v>2460</v>
+        <v>2462</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>800</v>
+        <v>2061</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>64</v>
+        <v>873</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>801</v>
+        <v>2062</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>330</v>
@@ -41473,6 +41449,9 @@
       <c r="I48" s="8" t="s">
         <v>2426</v>
       </c>
+      <c r="J48" s="8" t="s">
+        <v>2434</v>
+      </c>
       <c r="K48" t="s">
         <v>2428</v>
       </c>
@@ -41480,24 +41459,24 @@
         <v>19</v>
       </c>
       <c r="M48" t="s">
-        <v>409</v>
+        <v>1981</v>
       </c>
       <c r="N48" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50" s="7" t="s">
-        <v>2461</v>
+        <v>2463</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>2462</v>
+        <v>853</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>1972</v>
+        <v>83</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>2463</v>
+        <v>84</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>330</v>
@@ -41524,24 +41503,24 @@
         <v>19</v>
       </c>
       <c r="M50" t="s">
-        <v>380</v>
+        <v>86</v>
       </c>
       <c r="N50" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
       <c r="A52" s="7" t="s">
         <v>2464</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>2465</v>
+        <v>850</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>151</v>
+        <v>851</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>2463</v>
+        <v>84</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>330</v>
@@ -41568,24 +41547,24 @@
         <v>19</v>
       </c>
       <c r="M52" t="s">
-        <v>380</v>
+        <v>293</v>
       </c>
       <c r="N52" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
       <c r="A54" s="7" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>2061</v>
+        <v>921</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>873</v>
+        <v>576</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>2062</v>
+        <v>922</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>330</v>
@@ -41603,7 +41582,7 @@
         <v>2426</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>2434</v>
+        <v>2427</v>
       </c>
       <c r="K54" t="s">
         <v>2428</v>
@@ -41612,24 +41591,24 @@
         <v>19</v>
       </c>
       <c r="M54" t="s">
-        <v>1981</v>
+        <v>2466</v>
       </c>
       <c r="N54" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:16">
       <c r="A56" s="7" t="s">
         <v>2467</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>853</v>
+        <v>966</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>83</v>
+        <v>967</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>84</v>
+        <v>968</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>330</v>
@@ -41647,7 +41626,7 @@
         <v>2426</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>2430</v>
+        <v>2434</v>
       </c>
       <c r="K56" t="s">
         <v>2428</v>
@@ -41656,24 +41635,24 @@
         <v>19</v>
       </c>
       <c r="M56" t="s">
-        <v>86</v>
+        <v>418</v>
       </c>
       <c r="N56" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
       <c r="A58" s="7" t="s">
         <v>2468</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>850</v>
+        <v>976</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>851</v>
+        <v>632</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>84</v>
+        <v>973</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>330</v>
@@ -41700,24 +41679,24 @@
         <v>19</v>
       </c>
       <c r="M58" t="s">
-        <v>293</v>
+        <v>1127</v>
       </c>
       <c r="N58" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
       <c r="A60" s="7" t="s">
         <v>2469</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>921</v>
+        <v>982</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>576</v>
+        <v>301</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>922</v>
+        <v>302</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>330</v>
@@ -41735,33 +41714,36 @@
         <v>2426</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>2427</v>
+        <v>2430</v>
       </c>
       <c r="K60" t="s">
         <v>2428</v>
       </c>
       <c r="L60" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="M60" t="s">
+        <v>600</v>
+      </c>
+      <c r="N60" t="s">
+        <v>29</v>
+      </c>
+      <c r="P60" t="s">
         <v>2470</v>
       </c>
-      <c r="N60" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
+    </row>
+    <row r="62" spans="1:16">
       <c r="A62" s="7" t="s">
         <v>2471</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>966</v>
+        <v>984</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>967</v>
+        <v>306</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>968</v>
+        <v>302</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>330</v>
@@ -41779,33 +41761,36 @@
         <v>2426</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>2434</v>
+        <v>2430</v>
       </c>
       <c r="K62" t="s">
         <v>2428</v>
       </c>
       <c r="L62" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="M62" t="s">
-        <v>418</v>
+        <v>600</v>
       </c>
       <c r="N62" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
+        <v>29</v>
+      </c>
+      <c r="P62" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
       <c r="A64" s="7" t="s">
         <v>2472</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>976</v>
+        <v>1010</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>632</v>
+        <v>1011</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>973</v>
+        <v>1012</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>330</v>
@@ -41832,24 +41817,24 @@
         <v>19</v>
       </c>
       <c r="M64" t="s">
-        <v>1127</v>
+        <v>2059</v>
       </c>
       <c r="N64" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" s="7" t="s">
         <v>2473</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>982</v>
+        <v>2474</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>301</v>
+        <v>1105</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>302</v>
+        <v>2475</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>330</v>
@@ -41867,36 +41852,33 @@
         <v>2426</v>
       </c>
       <c r="J66" s="8" t="s">
-        <v>2430</v>
+        <v>2427</v>
       </c>
       <c r="K66" t="s">
         <v>2428</v>
       </c>
       <c r="L66" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="M66" t="s">
-        <v>600</v>
+        <v>1925</v>
       </c>
       <c r="N66" t="s">
-        <v>29</v>
-      </c>
-      <c r="P66" t="s">
-        <v>2474</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" s="7" t="s">
+        <v>2476</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>2477</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="D68" s="8" t="s">
         <v>2475</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>984</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>302</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>330</v>
@@ -41914,42 +41896,39 @@
         <v>2426</v>
       </c>
       <c r="J68" s="8" t="s">
-        <v>2430</v>
+        <v>2427</v>
       </c>
       <c r="K68" t="s">
         <v>2428</v>
       </c>
       <c r="L68" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="M68" t="s">
-        <v>600</v>
+        <v>1045</v>
       </c>
       <c r="N68" t="s">
-        <v>29</v>
-      </c>
-      <c r="P68" t="s">
-        <v>2474</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" s="7" t="s">
-        <v>2476</v>
+        <v>2478</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>986</v>
+        <v>1018</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>250</v>
+        <v>1019</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>251</v>
+        <v>1020</v>
       </c>
       <c r="E70" s="8" t="s">
         <v>330</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>2443</v>
+        <v>331</v>
       </c>
       <c r="G70" s="8" t="s">
         <v>330</v>
@@ -41960,9 +41939,6 @@
       <c r="I70" s="8" t="s">
         <v>2426</v>
       </c>
-      <c r="J70" s="8" t="s">
-        <v>2477</v>
-      </c>
       <c r="K70" t="s">
         <v>2428</v>
       </c>
@@ -41970,24 +41946,24 @@
         <v>19</v>
       </c>
       <c r="M70" t="s">
-        <v>158</v>
+        <v>954</v>
       </c>
       <c r="N70" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" s="7" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>1010</v>
+        <v>2147</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>1011</v>
+        <v>306</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>1012</v>
+        <v>1032</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>330</v>
@@ -42014,24 +41990,24 @@
         <v>19</v>
       </c>
       <c r="M72" t="s">
-        <v>2059</v>
+        <v>380</v>
       </c>
       <c r="N72" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74" s="7" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>2480</v>
+        <v>2481</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>1105</v>
+        <v>2482</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>2481</v>
+        <v>2483</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>330</v>
@@ -42049,7 +42025,7 @@
         <v>2426</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>2427</v>
+        <v>2434</v>
       </c>
       <c r="K74" t="s">
         <v>2428</v>
@@ -42058,24 +42034,24 @@
         <v>19</v>
       </c>
       <c r="M74" t="s">
-        <v>1925</v>
+        <v>1041</v>
       </c>
       <c r="N74" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76" s="7" t="s">
-        <v>2482</v>
+        <v>2484</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>2483</v>
+        <v>1057</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>632</v>
+        <v>1058</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>2481</v>
+        <v>1059</v>
       </c>
       <c r="E76" s="8" t="s">
         <v>330</v>
@@ -42093,7 +42069,7 @@
         <v>2426</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>2427</v>
+        <v>2430</v>
       </c>
       <c r="K76" t="s">
         <v>2428</v>
@@ -42102,24 +42078,24 @@
         <v>19</v>
       </c>
       <c r="M76" t="s">
-        <v>1045</v>
+        <v>60</v>
       </c>
       <c r="N76" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" s="7" t="s">
-        <v>2484</v>
+        <v>2485</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>1018</v>
+        <v>1084</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>1019</v>
+        <v>1085</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>1020</v>
+        <v>1086</v>
       </c>
       <c r="E78" s="8" t="s">
         <v>330</v>
@@ -42136,6 +42112,9 @@
       <c r="I78" s="8" t="s">
         <v>2426</v>
       </c>
+      <c r="J78" s="8" t="s">
+        <v>2427</v>
+      </c>
       <c r="K78" t="s">
         <v>2428</v>
       </c>
@@ -42143,24 +42122,24 @@
         <v>19</v>
       </c>
       <c r="M78" t="s">
-        <v>954</v>
+        <v>1346</v>
       </c>
       <c r="N78" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" s="7" t="s">
-        <v>2485</v>
+        <v>2486</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>2147</v>
+        <v>1111</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>306</v>
+        <v>1112</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>1032</v>
+        <v>1113</v>
       </c>
       <c r="E80" s="8" t="s">
         <v>330</v>
@@ -42178,7 +42157,7 @@
         <v>2426</v>
       </c>
       <c r="J80" s="8" t="s">
-        <v>2430</v>
+        <v>2427</v>
       </c>
       <c r="K80" t="s">
         <v>2428</v>
@@ -42187,24 +42166,24 @@
         <v>19</v>
       </c>
       <c r="M80" t="s">
-        <v>380</v>
+        <v>1114</v>
       </c>
       <c r="N80" t="s">
-        <v>22</v>
+        <v>501</v>
       </c>
     </row>
     <row r="82" spans="1:16">
       <c r="A82" s="7" t="s">
-        <v>2486</v>
+        <v>2487</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>2487</v>
+        <v>1116</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>2488</v>
+        <v>836</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>2489</v>
+        <v>1117</v>
       </c>
       <c r="E82" s="8" t="s">
         <v>330</v>
@@ -42222,7 +42201,7 @@
         <v>2426</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>2434</v>
+        <v>2430</v>
       </c>
       <c r="K82" t="s">
         <v>2428</v>
@@ -42231,24 +42210,24 @@
         <v>19</v>
       </c>
       <c r="M82" t="s">
-        <v>1041</v>
+        <v>1936</v>
       </c>
       <c r="N82" t="s">
-        <v>22</v>
+        <v>638</v>
       </c>
     </row>
     <row r="84" spans="1:16">
       <c r="A84" s="7" t="s">
-        <v>2490</v>
+        <v>2488</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>1057</v>
+        <v>1137</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>1058</v>
+        <v>1138</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>1059</v>
+        <v>1139</v>
       </c>
       <c r="E84" s="8" t="s">
         <v>330</v>
@@ -42272,27 +42251,33 @@
         <v>2428</v>
       </c>
       <c r="L84" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="M84" t="s">
-        <v>60</v>
+        <v>1147</v>
       </c>
       <c r="N84" t="s">
-        <v>66</v>
+        <v>443</v>
+      </c>
+      <c r="O84" t="s">
+        <v>2489</v>
+      </c>
+      <c r="P84" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="86" spans="1:16">
       <c r="A86" s="7" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>1084</v>
+        <v>1208</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>1085</v>
+        <v>402</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>1086</v>
+        <v>1209</v>
       </c>
       <c r="E86" s="8" t="s">
         <v>330</v>
@@ -42310,7 +42295,7 @@
         <v>2426</v>
       </c>
       <c r="J86" s="8" t="s">
-        <v>2427</v>
+        <v>2430</v>
       </c>
       <c r="K86" t="s">
         <v>2428</v>
@@ -42319,7 +42304,7 @@
         <v>19</v>
       </c>
       <c r="M86" t="s">
-        <v>1346</v>
+        <v>60</v>
       </c>
       <c r="N86" t="s">
         <v>29</v>
@@ -42327,16 +42312,16 @@
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="7" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>1111</v>
+        <v>1211</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>1112</v>
+        <v>301</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>1113</v>
+        <v>1212</v>
       </c>
       <c r="E88" s="8" t="s">
         <v>330</v>
@@ -42363,24 +42348,24 @@
         <v>19</v>
       </c>
       <c r="M88" t="s">
-        <v>1114</v>
+        <v>610</v>
       </c>
       <c r="N88" t="s">
-        <v>501</v>
+        <v>374</v>
       </c>
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="7" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>1116</v>
+        <v>1217</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>836</v>
+        <v>1218</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>1117</v>
+        <v>1219</v>
       </c>
       <c r="E90" s="8" t="s">
         <v>330</v>
@@ -42398,7 +42383,7 @@
         <v>2426</v>
       </c>
       <c r="J90" s="8" t="s">
-        <v>2430</v>
+        <v>2427</v>
       </c>
       <c r="K90" t="s">
         <v>2428</v>
@@ -42407,24 +42392,24 @@
         <v>19</v>
       </c>
       <c r="M90" t="s">
-        <v>1936</v>
+        <v>680</v>
       </c>
       <c r="N90" t="s">
-        <v>638</v>
+        <v>374</v>
       </c>
     </row>
     <row r="92" spans="1:16">
       <c r="A92" s="7" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>1137</v>
+        <v>1221</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>1138</v>
+        <v>1019</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>1139</v>
+        <v>1222</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>330</v>
@@ -42442,39 +42427,33 @@
         <v>2426</v>
       </c>
       <c r="J92" s="8" t="s">
-        <v>2430</v>
+        <v>2434</v>
       </c>
       <c r="K92" t="s">
         <v>2428</v>
       </c>
       <c r="L92" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="M92" t="s">
-        <v>1147</v>
+        <v>1772</v>
       </c>
       <c r="N92" t="s">
-        <v>443</v>
-      </c>
-      <c r="O92" t="s">
-        <v>2495</v>
-      </c>
-      <c r="P92" t="s">
-        <v>380</v>
+        <v>507</v>
       </c>
     </row>
     <row r="94" spans="1:16">
       <c r="A94" s="7" t="s">
-        <v>2496</v>
+        <v>2494</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>1208</v>
+        <v>1282</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>402</v>
+        <v>1283</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>1209</v>
+        <v>1284</v>
       </c>
       <c r="E94" s="8" t="s">
         <v>330</v>
@@ -42501,24 +42480,24 @@
         <v>19</v>
       </c>
       <c r="M94" t="s">
-        <v>60</v>
+        <v>2495</v>
       </c>
       <c r="N94" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" spans="1:16">
       <c r="A96" s="7" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>1211</v>
+        <v>1313</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>301</v>
+        <v>1314</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>1212</v>
+        <v>1315</v>
       </c>
       <c r="E96" s="8" t="s">
         <v>330</v>
@@ -42536,7 +42515,7 @@
         <v>2426</v>
       </c>
       <c r="J96" s="8" t="s">
-        <v>2427</v>
+        <v>2430</v>
       </c>
       <c r="K96" t="s">
         <v>2428</v>
@@ -42545,10 +42524,10 @@
         <v>19</v>
       </c>
       <c r="M96" t="s">
-        <v>610</v>
+        <v>2497</v>
       </c>
       <c r="N96" t="s">
-        <v>374</v>
+        <v>638</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -42556,13 +42535,13 @@
         <v>2498</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>1217</v>
+        <v>1340</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>1218</v>
+        <v>83</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>1219</v>
+        <v>1341</v>
       </c>
       <c r="E98" s="8" t="s">
         <v>330</v>
@@ -42580,7 +42559,7 @@
         <v>2426</v>
       </c>
       <c r="J98" s="8" t="s">
-        <v>2427</v>
+        <v>2434</v>
       </c>
       <c r="K98" t="s">
         <v>2428</v>
@@ -42589,10 +42568,10 @@
         <v>19</v>
       </c>
       <c r="M98" t="s">
-        <v>680</v>
+        <v>1041</v>
       </c>
       <c r="N98" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -42600,13 +42579,13 @@
         <v>2499</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>1221</v>
+        <v>1348</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>1019</v>
+        <v>1003</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>1222</v>
+        <v>1349</v>
       </c>
       <c r="E100" s="8" t="s">
         <v>330</v>
@@ -42624,7 +42603,7 @@
         <v>2426</v>
       </c>
       <c r="J100" s="8" t="s">
-        <v>2434</v>
+        <v>2430</v>
       </c>
       <c r="K100" t="s">
         <v>2428</v>
@@ -42633,10 +42612,10 @@
         <v>19</v>
       </c>
       <c r="M100" t="s">
-        <v>1772</v>
+        <v>891</v>
       </c>
       <c r="N100" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -42644,13 +42623,13 @@
         <v>2500</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>1282</v>
+        <v>1351</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>1283</v>
+        <v>1352</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>1284</v>
+        <v>1353</v>
       </c>
       <c r="E102" s="8" t="s">
         <v>330</v>
@@ -42677,24 +42656,24 @@
         <v>19</v>
       </c>
       <c r="M102" t="s">
-        <v>2501</v>
+        <v>900</v>
       </c>
       <c r="N102" t="s">
-        <v>22</v>
+        <v>359</v>
       </c>
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="7" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>1313</v>
+        <v>1355</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>1314</v>
+        <v>1019</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>1315</v>
+        <v>1356</v>
       </c>
       <c r="E104" s="8" t="s">
         <v>330</v>
@@ -42721,24 +42700,24 @@
         <v>19</v>
       </c>
       <c r="M104" t="s">
-        <v>2503</v>
+        <v>764</v>
       </c>
       <c r="N104" t="s">
-        <v>638</v>
+        <v>501</v>
       </c>
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="7" t="s">
-        <v>2504</v>
+        <v>2502</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>1340</v>
+        <v>1358</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>83</v>
+        <v>1359</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>1341</v>
+        <v>1356</v>
       </c>
       <c r="E106" s="8" t="s">
         <v>330</v>
@@ -42756,7 +42735,7 @@
         <v>2426</v>
       </c>
       <c r="J106" s="8" t="s">
-        <v>2434</v>
+        <v>2430</v>
       </c>
       <c r="K106" t="s">
         <v>2428</v>
@@ -42765,24 +42744,24 @@
         <v>19</v>
       </c>
       <c r="M106" t="s">
-        <v>1041</v>
+        <v>764</v>
       </c>
       <c r="N106" t="s">
-        <v>359</v>
+        <v>501</v>
       </c>
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="7" t="s">
-        <v>2505</v>
+        <v>2503</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>1348</v>
+        <v>1370</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>1003</v>
+        <v>141</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>1349</v>
+        <v>142</v>
       </c>
       <c r="E108" s="8" t="s">
         <v>330</v>
@@ -42809,24 +42788,24 @@
         <v>19</v>
       </c>
       <c r="M108" t="s">
-        <v>891</v>
+        <v>54</v>
       </c>
       <c r="N108" t="s">
-        <v>501</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="7" t="s">
-        <v>2506</v>
+        <v>2504</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>1351</v>
+        <v>1387</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>1352</v>
+        <v>51</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>1353</v>
+        <v>1384</v>
       </c>
       <c r="E110" s="8" t="s">
         <v>330</v>
@@ -42844,7 +42823,7 @@
         <v>2426</v>
       </c>
       <c r="J110" s="8" t="s">
-        <v>2430</v>
+        <v>2434</v>
       </c>
       <c r="K110" t="s">
         <v>2428</v>
@@ -42853,24 +42832,24 @@
         <v>19</v>
       </c>
       <c r="M110" t="s">
-        <v>900</v>
+        <v>725</v>
       </c>
       <c r="N110" t="s">
-        <v>359</v>
+        <v>519</v>
       </c>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="7" t="s">
-        <v>2507</v>
+        <v>2505</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>1355</v>
+        <v>1383</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>1019</v>
+        <v>147</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>1356</v>
+        <v>1384</v>
       </c>
       <c r="E112" s="8" t="s">
         <v>330</v>
@@ -42888,7 +42867,7 @@
         <v>2426</v>
       </c>
       <c r="J112" s="8" t="s">
-        <v>2430</v>
+        <v>2434</v>
       </c>
       <c r="K112" t="s">
         <v>2428</v>
@@ -42897,24 +42876,24 @@
         <v>19</v>
       </c>
       <c r="M112" t="s">
-        <v>764</v>
+        <v>2497</v>
       </c>
       <c r="N112" t="s">
-        <v>501</v>
+        <v>393</v>
       </c>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="7" t="s">
-        <v>2508</v>
+        <v>2506</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>1358</v>
+        <v>1411</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>1359</v>
+        <v>868</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>1356</v>
+        <v>1412</v>
       </c>
       <c r="E114" s="8" t="s">
         <v>330</v>
@@ -42941,24 +42920,24 @@
         <v>19</v>
       </c>
       <c r="M114" t="s">
-        <v>764</v>
+        <v>2497</v>
       </c>
       <c r="N114" t="s">
-        <v>501</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="7" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>1370</v>
+        <v>1428</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>141</v>
+        <v>1429</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>142</v>
+        <v>1426</v>
       </c>
       <c r="E116" s="8" t="s">
         <v>330</v>
@@ -42976,7 +42955,7 @@
         <v>2426</v>
       </c>
       <c r="J116" s="8" t="s">
-        <v>2430</v>
+        <v>2434</v>
       </c>
       <c r="K116" t="s">
         <v>2428</v>
@@ -42985,24 +42964,24 @@
         <v>19</v>
       </c>
       <c r="M116" t="s">
-        <v>54</v>
+        <v>1166</v>
       </c>
       <c r="N116" t="s">
-        <v>22</v>
+        <v>519</v>
       </c>
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="7" t="s">
+        <v>2509</v>
+      </c>
+      <c r="B118" s="7" t="s">
         <v>2510</v>
       </c>
-      <c r="B118" s="7" t="s">
-        <v>1387</v>
-      </c>
       <c r="C118" s="8" t="s">
-        <v>51</v>
+        <v>330</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>1384</v>
+        <v>1426</v>
       </c>
       <c r="E118" s="8" t="s">
         <v>330</v>
@@ -43029,7 +43008,7 @@
         <v>19</v>
       </c>
       <c r="M118" t="s">
-        <v>725</v>
+        <v>685</v>
       </c>
       <c r="N118" t="s">
         <v>519</v>
@@ -43040,13 +43019,13 @@
         <v>2511</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>1383</v>
+        <v>1431</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>147</v>
+        <v>498</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>1384</v>
+        <v>1432</v>
       </c>
       <c r="E120" s="8" t="s">
         <v>330</v>
@@ -43063,9 +43042,6 @@
       <c r="I120" s="8" t="s">
         <v>2426</v>
       </c>
-      <c r="J120" s="8" t="s">
-        <v>2434</v>
-      </c>
       <c r="K120" t="s">
         <v>2428</v>
       </c>
@@ -43073,7 +43049,7 @@
         <v>19</v>
       </c>
       <c r="M120" t="s">
-        <v>2503</v>
+        <v>414</v>
       </c>
       <c r="N120" t="s">
         <v>393</v>
@@ -43084,19 +43060,19 @@
         <v>2512</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>1407</v>
+        <v>1434</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>1408</v>
+        <v>104</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>1409</v>
+        <v>1435</v>
       </c>
       <c r="E122" s="8" t="s">
         <v>330</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>2443</v>
+        <v>331</v>
       </c>
       <c r="G122" s="8" t="s">
         <v>330</v>
@@ -43107,9 +43083,6 @@
       <c r="I122" s="8" t="s">
         <v>2426</v>
       </c>
-      <c r="J122" s="8" t="s">
-        <v>2430</v>
-      </c>
       <c r="K122" t="s">
         <v>2428</v>
       </c>
@@ -43117,224 +43090,227 @@
         <v>19</v>
       </c>
       <c r="M122" t="s">
-        <v>66</v>
+        <v>1436</v>
       </c>
       <c r="N122" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14">
-      <c r="A124" s="7" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
+      <c r="A123" s="7" t="s">
         <v>2513</v>
       </c>
-      <c r="B124" s="7" t="s">
-        <v>1411</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>868</v>
-      </c>
-      <c r="D124" s="8" t="s">
-        <v>1412</v>
-      </c>
-      <c r="E124" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="F124" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="G124" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="H124" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="I124" s="8" t="s">
+      <c r="B123" s="7" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="G123" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="H123" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="I123" s="8" t="s">
         <v>2426</v>
       </c>
-      <c r="J124" s="8" t="s">
+      <c r="J123" s="8" t="s">
+        <v>2434</v>
+      </c>
+      <c r="K123" t="s">
+        <v>2428</v>
+      </c>
+      <c r="L123" t="s">
+        <v>19</v>
+      </c>
+      <c r="M123" t="s">
+        <v>380</v>
+      </c>
+      <c r="N123" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
+      <c r="A125" s="7" t="s">
+        <v>2514</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="G125" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="H125" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="I125" s="8" t="s">
+        <v>2426</v>
+      </c>
+      <c r="J125" s="8" t="s">
         <v>2430</v>
       </c>
-      <c r="K124" t="s">
+      <c r="K125" t="s">
         <v>2428</v>
       </c>
-      <c r="L124" t="s">
-        <v>19</v>
-      </c>
-      <c r="M124" t="s">
-        <v>2503</v>
-      </c>
-      <c r="N124" t="s">
-        <v>2514</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14">
-      <c r="A126" s="7" t="s">
+      <c r="L125" t="s">
+        <v>19</v>
+      </c>
+      <c r="M125" t="s">
+        <v>1631</v>
+      </c>
+      <c r="N125" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
+      <c r="A127" s="7" t="s">
         <v>2515</v>
       </c>
-      <c r="B126" s="7" t="s">
-        <v>1428</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>1429</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>1426</v>
-      </c>
-      <c r="E126" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="F126" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="G126" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="H126" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="I126" s="8" t="s">
+      <c r="B127" s="7" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>1485</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="F127" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="G127" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="H127" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="I127" s="8" t="s">
         <v>2426</v>
       </c>
-      <c r="J126" s="8" t="s">
+      <c r="J127" s="8" t="s">
         <v>2434</v>
       </c>
-      <c r="K126" t="s">
+      <c r="K127" t="s">
         <v>2428</v>
       </c>
-      <c r="L126" t="s">
-        <v>19</v>
-      </c>
-      <c r="M126" t="s">
-        <v>1166</v>
-      </c>
-      <c r="N126" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14">
-      <c r="A128" s="7" t="s">
+      <c r="L127" t="s">
+        <v>19</v>
+      </c>
+      <c r="M127" t="s">
+        <v>1486</v>
+      </c>
+      <c r="N127" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14">
+      <c r="A129" s="7" t="s">
         <v>2516</v>
       </c>
-      <c r="B128" s="7" t="s">
+      <c r="B129" s="7" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>1543</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="G129" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="H129" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="I129" s="8" t="s">
+        <v>2426</v>
+      </c>
+      <c r="J129" s="8" t="s">
+        <v>2427</v>
+      </c>
+      <c r="K129" t="s">
+        <v>2428</v>
+      </c>
+      <c r="L129" t="s">
+        <v>19</v>
+      </c>
+      <c r="M129" t="s">
         <v>2517</v>
       </c>
-      <c r="C128" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="D128" s="8" t="s">
-        <v>1426</v>
-      </c>
-      <c r="E128" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="F128" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="G128" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="H128" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="I128" s="8" t="s">
+      <c r="N129" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14">
+      <c r="A131" s="7" t="s">
+        <v>2518</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="G131" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="H131" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="I131" s="8" t="s">
         <v>2426</v>
       </c>
-      <c r="J128" s="8" t="s">
-        <v>2434</v>
-      </c>
-      <c r="K128" t="s">
+      <c r="K131" t="s">
         <v>2428</v>
       </c>
-      <c r="L128" t="s">
-        <v>19</v>
-      </c>
-      <c r="M128" t="s">
-        <v>685</v>
-      </c>
-      <c r="N128" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14">
-      <c r="A130" s="7" t="s">
-        <v>2518</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>1431</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="D130" s="8" t="s">
-        <v>1432</v>
-      </c>
-      <c r="E130" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="F130" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="G130" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="H130" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="I130" s="8" t="s">
-        <v>2426</v>
-      </c>
-      <c r="K130" t="s">
-        <v>2428</v>
-      </c>
-      <c r="L130" t="s">
-        <v>19</v>
-      </c>
-      <c r="M130" t="s">
-        <v>414</v>
-      </c>
-      <c r="N130" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14">
-      <c r="A132" s="7" t="s">
+      <c r="L131" t="s">
+        <v>19</v>
+      </c>
+      <c r="M131" t="s">
         <v>2519</v>
       </c>
-      <c r="B132" s="7" t="s">
-        <v>1434</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D132" s="8" t="s">
-        <v>1435</v>
-      </c>
-      <c r="E132" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="F132" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="G132" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="H132" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="I132" s="8" t="s">
-        <v>2426</v>
-      </c>
-      <c r="K132" t="s">
-        <v>2428</v>
-      </c>
-      <c r="L132" t="s">
-        <v>19</v>
-      </c>
-      <c r="M132" t="s">
-        <v>1436</v>
-      </c>
-      <c r="N132" t="s">
-        <v>638</v>
+      <c r="N131" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -43342,13 +43318,13 @@
         <v>2520</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>1434</v>
+        <v>1601</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>104</v>
+        <v>1602</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>1435</v>
+        <v>1603</v>
       </c>
       <c r="E133" s="8" t="s">
         <v>330</v>
@@ -43366,7 +43342,7 @@
         <v>2426</v>
       </c>
       <c r="J133" s="8" t="s">
-        <v>2434</v>
+        <v>2427</v>
       </c>
       <c r="K133" t="s">
         <v>2428</v>
@@ -43375,10 +43351,10 @@
         <v>19</v>
       </c>
       <c r="M133" t="s">
-        <v>380</v>
+        <v>547</v>
       </c>
       <c r="N133" t="s">
-        <v>29</v>
+        <v>548</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -43386,13 +43362,13 @@
         <v>2521</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>1474</v>
+        <v>1605</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>1475</v>
+        <v>1606</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>1476</v>
+        <v>1607</v>
       </c>
       <c r="E135" s="8" t="s">
         <v>330</v>
@@ -43410,7 +43386,7 @@
         <v>2426</v>
       </c>
       <c r="J135" s="8" t="s">
-        <v>2430</v>
+        <v>2427</v>
       </c>
       <c r="K135" t="s">
         <v>2428</v>
@@ -43419,24 +43395,24 @@
         <v>19</v>
       </c>
       <c r="M135" t="s">
-        <v>1631</v>
+        <v>2522</v>
       </c>
       <c r="N135" t="s">
-        <v>359</v>
+        <v>501</v>
       </c>
     </row>
     <row r="137" spans="1:14">
       <c r="A137" s="7" t="s">
-        <v>2522</v>
+        <v>2523</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>1483</v>
+        <v>1613</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>1484</v>
+        <v>1614</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>1485</v>
+        <v>1615</v>
       </c>
       <c r="E137" s="8" t="s">
         <v>330</v>
@@ -43453,9 +43429,6 @@
       <c r="I137" s="8" t="s">
         <v>2426</v>
       </c>
-      <c r="J137" s="8" t="s">
-        <v>2434</v>
-      </c>
       <c r="K137" t="s">
         <v>2428</v>
       </c>
@@ -43463,24 +43436,24 @@
         <v>19</v>
       </c>
       <c r="M137" t="s">
-        <v>1486</v>
+        <v>1501</v>
       </c>
       <c r="N137" t="s">
-        <v>443</v>
+        <v>638</v>
       </c>
     </row>
     <row r="139" spans="1:14">
       <c r="A139" s="7" t="s">
-        <v>2523</v>
+        <v>2524</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>1541</v>
+        <v>1617</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>1542</v>
+        <v>1618</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>1543</v>
+        <v>1619</v>
       </c>
       <c r="E139" s="8" t="s">
         <v>330</v>
@@ -43507,10 +43480,10 @@
         <v>19</v>
       </c>
       <c r="M139" t="s">
-        <v>2524</v>
+        <v>2522</v>
       </c>
       <c r="N139" t="s">
-        <v>374</v>
+        <v>405</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -43518,13 +43491,13 @@
         <v>2525</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>1598</v>
+        <v>1633</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>1599</v>
+        <v>632</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>1596</v>
+        <v>1634</v>
       </c>
       <c r="E141" s="8" t="s">
         <v>330</v>
@@ -43548,24 +43521,24 @@
         <v>19</v>
       </c>
       <c r="M141" t="s">
-        <v>2526</v>
+        <v>1436</v>
       </c>
       <c r="N141" t="s">
-        <v>548</v>
+        <v>638</v>
       </c>
     </row>
     <row r="143" spans="1:14">
       <c r="A143" s="7" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>1601</v>
+        <v>1676</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>1602</v>
+        <v>1677</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>1603</v>
+        <v>152</v>
       </c>
       <c r="E143" s="8" t="s">
         <v>330</v>
@@ -43583,7 +43556,7 @@
         <v>2426</v>
       </c>
       <c r="J143" s="8" t="s">
-        <v>2427</v>
+        <v>2430</v>
       </c>
       <c r="K143" t="s">
         <v>2428</v>
@@ -43592,24 +43565,24 @@
         <v>19</v>
       </c>
       <c r="M143" t="s">
-        <v>547</v>
+        <v>1638</v>
       </c>
       <c r="N143" t="s">
-        <v>548</v>
+        <v>359</v>
       </c>
     </row>
     <row r="145" spans="1:14">
       <c r="A145" s="7" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>1605</v>
+        <v>1671</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>1606</v>
+        <v>174</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>1607</v>
+        <v>152</v>
       </c>
       <c r="E145" s="8" t="s">
         <v>330</v>
@@ -43627,7 +43600,7 @@
         <v>2426</v>
       </c>
       <c r="J145" s="8" t="s">
-        <v>2427</v>
+        <v>2434</v>
       </c>
       <c r="K145" t="s">
         <v>2428</v>
@@ -43636,24 +43609,24 @@
         <v>19</v>
       </c>
       <c r="M145" t="s">
-        <v>2529</v>
+        <v>2522</v>
       </c>
       <c r="N145" t="s">
-        <v>501</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="147" spans="1:14">
       <c r="A147" s="7" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>1613</v>
+        <v>1668</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>1614</v>
+        <v>1669</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>1615</v>
+        <v>152</v>
       </c>
       <c r="E147" s="8" t="s">
         <v>330</v>
@@ -43670,6 +43643,9 @@
       <c r="I147" s="8" t="s">
         <v>2426</v>
       </c>
+      <c r="J147" s="8" t="s">
+        <v>2434</v>
+      </c>
       <c r="K147" t="s">
         <v>2428</v>
       </c>
@@ -43677,24 +43653,24 @@
         <v>19</v>
       </c>
       <c r="M147" t="s">
-        <v>1501</v>
+        <v>1029</v>
       </c>
       <c r="N147" t="s">
-        <v>638</v>
+        <v>512</v>
       </c>
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="7" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>1617</v>
+        <v>1720</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>1618</v>
+        <v>1721</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>1619</v>
+        <v>1722</v>
       </c>
       <c r="E149" s="8" t="s">
         <v>330</v>
@@ -43712,7 +43688,7 @@
         <v>2426</v>
       </c>
       <c r="J149" s="8" t="s">
-        <v>2427</v>
+        <v>2430</v>
       </c>
       <c r="K149" t="s">
         <v>2428</v>
@@ -43721,7 +43697,7 @@
         <v>19</v>
       </c>
       <c r="M149" t="s">
-        <v>2529</v>
+        <v>2531</v>
       </c>
       <c r="N149" t="s">
         <v>405</v>
@@ -43732,13 +43708,13 @@
         <v>2532</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>1633</v>
+        <v>1736</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>632</v>
+        <v>1737</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>1634</v>
+        <v>1738</v>
       </c>
       <c r="E151" s="8" t="s">
         <v>330</v>
@@ -43755,6 +43731,9 @@
       <c r="I151" s="8" t="s">
         <v>2426</v>
       </c>
+      <c r="J151" s="8" t="s">
+        <v>2430</v>
+      </c>
       <c r="K151" t="s">
         <v>2428</v>
       </c>
@@ -43762,10 +43741,10 @@
         <v>19</v>
       </c>
       <c r="M151" t="s">
-        <v>1436</v>
+        <v>2267</v>
       </c>
       <c r="N151" t="s">
-        <v>638</v>
+        <v>501</v>
       </c>
     </row>
     <row r="153" spans="1:14">
@@ -43773,13 +43752,13 @@
         <v>2533</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>1676</v>
+        <v>1740</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>1677</v>
+        <v>1741</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>152</v>
+        <v>1742</v>
       </c>
       <c r="E153" s="8" t="s">
         <v>330</v>
@@ -43806,10 +43785,10 @@
         <v>19</v>
       </c>
       <c r="M153" t="s">
-        <v>1638</v>
+        <v>911</v>
       </c>
       <c r="N153" t="s">
-        <v>359</v>
+        <v>405</v>
       </c>
     </row>
     <row r="155" spans="1:14">
@@ -43817,13 +43796,13 @@
         <v>2534</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>1671</v>
+        <v>1763</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>174</v>
+        <v>1547</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>152</v>
+        <v>1764</v>
       </c>
       <c r="E155" s="8" t="s">
         <v>330</v>
@@ -43850,24 +43829,24 @@
         <v>19</v>
       </c>
       <c r="M155" t="s">
-        <v>2529</v>
+        <v>1299</v>
       </c>
       <c r="N155" t="s">
-        <v>2535</v>
+        <v>507</v>
       </c>
     </row>
     <row r="157" spans="1:14">
       <c r="A157" s="7" t="s">
+        <v>2535</v>
+      </c>
+      <c r="B157" s="7" t="s">
         <v>2536</v>
       </c>
-      <c r="B157" s="7" t="s">
-        <v>1668</v>
-      </c>
       <c r="C157" s="8" t="s">
-        <v>1669</v>
+        <v>2537</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>152</v>
+        <v>2538</v>
       </c>
       <c r="E157" s="8" t="s">
         <v>330</v>
@@ -43885,7 +43864,7 @@
         <v>2426</v>
       </c>
       <c r="J157" s="8" t="s">
-        <v>2434</v>
+        <v>2430</v>
       </c>
       <c r="K157" t="s">
         <v>2428</v>
@@ -43894,24 +43873,24 @@
         <v>19</v>
       </c>
       <c r="M157" t="s">
-        <v>1029</v>
+        <v>1501</v>
       </c>
       <c r="N157" t="s">
-        <v>512</v>
+        <v>638</v>
       </c>
     </row>
     <row r="159" spans="1:14">
       <c r="A159" s="7" t="s">
-        <v>2537</v>
+        <v>2539</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>1720</v>
+        <v>1788</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>1721</v>
+        <v>1131</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>1722</v>
+        <v>1789</v>
       </c>
       <c r="E159" s="8" t="s">
         <v>330</v>
@@ -43938,24 +43917,24 @@
         <v>19</v>
       </c>
       <c r="M159" t="s">
-        <v>2538</v>
+        <v>1936</v>
       </c>
       <c r="N159" t="s">
-        <v>405</v>
+        <v>638</v>
       </c>
     </row>
     <row r="161" spans="1:14">
       <c r="A161" s="7" t="s">
-        <v>2539</v>
+        <v>2540</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>1736</v>
+        <v>1817</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>1737</v>
+        <v>174</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>1738</v>
+        <v>175</v>
       </c>
       <c r="E161" s="8" t="s">
         <v>330</v>
@@ -43982,24 +43961,24 @@
         <v>19</v>
       </c>
       <c r="M161" t="s">
-        <v>2267</v>
+        <v>158</v>
       </c>
       <c r="N161" t="s">
-        <v>501</v>
+        <v>22</v>
       </c>
     </row>
     <row r="163" spans="1:14">
       <c r="A163" s="7" t="s">
-        <v>2540</v>
+        <v>2541</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>1740</v>
+        <v>1828</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>1741</v>
+        <v>205</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>1742</v>
+        <v>115</v>
       </c>
       <c r="E163" s="8" t="s">
         <v>330</v>
@@ -44026,30 +44005,30 @@
         <v>19</v>
       </c>
       <c r="M163" t="s">
-        <v>911</v>
+        <v>764</v>
       </c>
       <c r="N163" t="s">
-        <v>405</v>
+        <v>638</v>
       </c>
     </row>
     <row r="165" spans="1:14">
       <c r="A165" s="7" t="s">
-        <v>2541</v>
+        <v>2542</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>2398</v>
+        <v>1842</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>135</v>
+        <v>1843</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>2399</v>
+        <v>1844</v>
       </c>
       <c r="E165" s="8" t="s">
         <v>330</v>
       </c>
       <c r="F165" s="8" t="s">
-        <v>2443</v>
+        <v>331</v>
       </c>
       <c r="G165" s="8" t="s">
         <v>330</v>
@@ -44070,273 +44049,9 @@
         <v>19</v>
       </c>
       <c r="M165" t="s">
-        <v>1367</v>
+        <v>1845</v>
       </c>
       <c r="N165" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14">
-      <c r="A167" s="7" t="s">
-        <v>2542</v>
-      </c>
-      <c r="B167" s="7" t="s">
-        <v>1763</v>
-      </c>
-      <c r="C167" s="8" t="s">
-        <v>1547</v>
-      </c>
-      <c r="D167" s="8" t="s">
-        <v>1764</v>
-      </c>
-      <c r="E167" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="F167" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="G167" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="H167" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="I167" s="8" t="s">
-        <v>2426</v>
-      </c>
-      <c r="J167" s="8" t="s">
-        <v>2434</v>
-      </c>
-      <c r="K167" t="s">
-        <v>2428</v>
-      </c>
-      <c r="L167" t="s">
-        <v>19</v>
-      </c>
-      <c r="M167" t="s">
-        <v>1299</v>
-      </c>
-      <c r="N167" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14">
-      <c r="A169" s="7" t="s">
-        <v>2543</v>
-      </c>
-      <c r="B169" s="7" t="s">
-        <v>2544</v>
-      </c>
-      <c r="C169" s="8" t="s">
-        <v>2545</v>
-      </c>
-      <c r="D169" s="8" t="s">
-        <v>2546</v>
-      </c>
-      <c r="E169" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="F169" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="G169" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="H169" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="I169" s="8" t="s">
-        <v>2426</v>
-      </c>
-      <c r="J169" s="8" t="s">
-        <v>2430</v>
-      </c>
-      <c r="K169" t="s">
-        <v>2428</v>
-      </c>
-      <c r="L169" t="s">
-        <v>19</v>
-      </c>
-      <c r="M169" t="s">
-        <v>1501</v>
-      </c>
-      <c r="N169" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14">
-      <c r="A171" s="7" t="s">
-        <v>2547</v>
-      </c>
-      <c r="B171" s="7" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C171" s="8" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D171" s="8" t="s">
-        <v>1789</v>
-      </c>
-      <c r="E171" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="F171" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="G171" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="H171" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="I171" s="8" t="s">
-        <v>2426</v>
-      </c>
-      <c r="J171" s="8" t="s">
-        <v>2430</v>
-      </c>
-      <c r="K171" t="s">
-        <v>2428</v>
-      </c>
-      <c r="L171" t="s">
-        <v>19</v>
-      </c>
-      <c r="M171" t="s">
-        <v>1936</v>
-      </c>
-      <c r="N171" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14">
-      <c r="A173" s="7" t="s">
-        <v>2548</v>
-      </c>
-      <c r="B173" s="7" t="s">
-        <v>1817</v>
-      </c>
-      <c r="C173" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D173" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="E173" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="F173" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="G173" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="H173" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="I173" s="8" t="s">
-        <v>2426</v>
-      </c>
-      <c r="J173" s="8" t="s">
-        <v>2430</v>
-      </c>
-      <c r="K173" t="s">
-        <v>2428</v>
-      </c>
-      <c r="L173" t="s">
-        <v>19</v>
-      </c>
-      <c r="M173" t="s">
-        <v>158</v>
-      </c>
-      <c r="N173" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14">
-      <c r="A175" s="7" t="s">
-        <v>2549</v>
-      </c>
-      <c r="B175" s="7" t="s">
-        <v>1828</v>
-      </c>
-      <c r="C175" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D175" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E175" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="F175" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="G175" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="H175" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="I175" s="8" t="s">
-        <v>2426</v>
-      </c>
-      <c r="J175" s="8" t="s">
-        <v>2430</v>
-      </c>
-      <c r="K175" t="s">
-        <v>2428</v>
-      </c>
-      <c r="L175" t="s">
-        <v>19</v>
-      </c>
-      <c r="M175" t="s">
-        <v>764</v>
-      </c>
-      <c r="N175" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="177" spans="1:14">
-      <c r="A177" s="7" t="s">
-        <v>2550</v>
-      </c>
-      <c r="B177" s="7" t="s">
-        <v>1842</v>
-      </c>
-      <c r="C177" s="8" t="s">
-        <v>1843</v>
-      </c>
-      <c r="D177" s="8" t="s">
-        <v>1844</v>
-      </c>
-      <c r="E177" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="F177" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="G177" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="H177" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="I177" s="8" t="s">
-        <v>2426</v>
-      </c>
-      <c r="J177" s="8" t="s">
-        <v>2430</v>
-      </c>
-      <c r="K177" t="s">
-        <v>2428</v>
-      </c>
-      <c r="L177" t="s">
-        <v>19</v>
-      </c>
-      <c r="M177" t="s">
-        <v>1845</v>
-      </c>
-      <c r="N177" t="s">
         <v>519</v>
       </c>
     </row>
@@ -44464,16 +44179,16 @@
     <hyperlink ref="B120" r:id="rId120"/>
     <hyperlink ref="A122" r:id="rId121"/>
     <hyperlink ref="B122" r:id="rId122"/>
-    <hyperlink ref="A124" r:id="rId123"/>
-    <hyperlink ref="B124" r:id="rId124"/>
-    <hyperlink ref="A126" r:id="rId125"/>
-    <hyperlink ref="B126" r:id="rId126"/>
-    <hyperlink ref="A128" r:id="rId127"/>
-    <hyperlink ref="B128" r:id="rId128"/>
-    <hyperlink ref="A130" r:id="rId129"/>
-    <hyperlink ref="B130" r:id="rId130"/>
-    <hyperlink ref="A132" r:id="rId131"/>
-    <hyperlink ref="B132" r:id="rId132"/>
+    <hyperlink ref="A123" r:id="rId123"/>
+    <hyperlink ref="B123" r:id="rId124"/>
+    <hyperlink ref="A125" r:id="rId125"/>
+    <hyperlink ref="B125" r:id="rId126"/>
+    <hyperlink ref="A127" r:id="rId127"/>
+    <hyperlink ref="B127" r:id="rId128"/>
+    <hyperlink ref="A129" r:id="rId129"/>
+    <hyperlink ref="B129" r:id="rId130"/>
+    <hyperlink ref="A131" r:id="rId131"/>
+    <hyperlink ref="B131" r:id="rId132"/>
     <hyperlink ref="A133" r:id="rId133"/>
     <hyperlink ref="B133" r:id="rId134"/>
     <hyperlink ref="A135" r:id="rId135"/>
@@ -44508,18 +44223,6 @@
     <hyperlink ref="B163" r:id="rId164"/>
     <hyperlink ref="A165" r:id="rId165"/>
     <hyperlink ref="B165" r:id="rId166"/>
-    <hyperlink ref="A167" r:id="rId167"/>
-    <hyperlink ref="B167" r:id="rId168"/>
-    <hyperlink ref="A169" r:id="rId169"/>
-    <hyperlink ref="B169" r:id="rId170"/>
-    <hyperlink ref="A171" r:id="rId171"/>
-    <hyperlink ref="B171" r:id="rId172"/>
-    <hyperlink ref="A173" r:id="rId173"/>
-    <hyperlink ref="B173" r:id="rId174"/>
-    <hyperlink ref="A175" r:id="rId175"/>
-    <hyperlink ref="B175" r:id="rId176"/>
-    <hyperlink ref="A177" r:id="rId177"/>
-    <hyperlink ref="B177" r:id="rId178"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -44600,7 +44303,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="7" t="s">
-        <v>2551</v>
+        <v>2543</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>1916</v>
@@ -44624,16 +44327,16 @@
         <v>331</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>2552</v>
+        <v>2544</v>
       </c>
       <c r="K2" t="s">
-        <v>2553</v>
+        <v>2545</v>
       </c>
       <c r="L2" t="s">
         <v>264</v>
       </c>
       <c r="M2" t="s">
-        <v>2554</v>
+        <v>2546</v>
       </c>
       <c r="N2" t="s">
         <v>22</v>
@@ -44641,7 +44344,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="7" t="s">
-        <v>2555</v>
+        <v>2547</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>2055</v>
@@ -44665,10 +44368,10 @@
         <v>331</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>2552</v>
+        <v>2544</v>
       </c>
       <c r="K4" t="s">
-        <v>2553</v>
+        <v>2545</v>
       </c>
       <c r="L4" t="s">
         <v>19</v>
